--- a/Assets/Scripts/1.Abilities/Resources/Documents/ComplexAbilities/ComplexAbililties_SearchStatus.xlsx
+++ b/Assets/Scripts/1.Abilities/Resources/Documents/ComplexAbilities/ComplexAbililties_SearchStatus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BackUp 2023-0324\Unity Portfolios\BoilerPlate\BP\Assets\Scripts\1.Abilities\Resources\Documents\ComplexAbilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\myWorks\Unity-BolierPlate-Codes\Assets\Scripts\1.Abilities\Resources\Documents\ComplexAbilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93787E5E-A263-4F1A-8C37-2DE160AB7196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0690C764-6BDD-43D8-BD87-03AD8394F072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="4150" windowWidth="28800" windowHeight="15460" xr2:uid="{43129CA1-51D5-4C92-9A38-1A83E66F1476}"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="28800" windowHeight="15345" xr2:uid="{43129CA1-51D5-4C92-9A38-1A83E66F1476}"/>
   </bookViews>
   <sheets>
     <sheet name="AreaDurationAimedAbility" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchUnit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,11 +118,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,15 +436,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B6C90D-190D-468E-AB43-27C4950A1E42}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,89 +467,11 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -558,15 +481,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55566779-8205-4BA0-BF7D-874EB067FF08}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,42 +514,6 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -636,15 +523,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF823A4-9422-4055-914D-921C5F34C1B4}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -669,83 +556,6 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -755,15 +565,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C6EC0B-DBD4-439E-A258-DBBA120310D1}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -788,43 +598,6 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
